--- a/cluster_summary.xlsx
+++ b/cluster_summary.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78063575-26B3-4956-AC34-AD57B576B9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F562E7-8B62-44B8-B7EF-92C2E9D24C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
   <si>
     <t>province</t>
   </si>
@@ -178,13 +179,58 @@
   </si>
   <si>
     <t>Average of y</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>SUMATERA</t>
+  </si>
+  <si>
+    <t>JAWA-BALI-NT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN</t>
+  </si>
+  <si>
+    <t>SULAWESI</t>
+  </si>
+  <si>
+    <t>MALUKU-PAPUA</t>
+  </si>
+  <si>
+    <t>Upah Minimum (Rp)</t>
+  </si>
+  <si>
+    <t>Average of Upah Minimum (Rp)</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
+  <si>
+    <t>Tingkat Pertumbuhan Ekonomi</t>
+  </si>
+  <si>
+    <t>Tingkat Pengangguran Terbuka</t>
+  </si>
+  <si>
+    <t>Rasio Gini</t>
+  </si>
+  <si>
+    <t>Tingkat Kemiskinan</t>
+  </si>
+  <si>
+    <t>Klaster (K-medoids)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +245,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,10 +292,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -248,12 +308,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -267,11 +348,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Riansyah Fazar Ramadhan" refreshedDate="45453.266334259257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{11B46310-67A4-48B7-86CD-65C65C82ABCE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Riansyah Fazar Ramadhan" refreshedDate="45454.568931828704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{969F80C5-AF80-444C-9D7B-BB7CBB886CF2}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:H35" sheet="Sheet1"/>
+    <worksheetSource ref="B1:J35" sheet="Sheet1"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="9">
     <cacheField name="province" numFmtId="0">
       <sharedItems count="34">
         <s v="ACEH"/>
@@ -310,6 +391,15 @@
         <s v="PAPUA"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="island" numFmtId="0">
+      <sharedItems count="5">
+        <s v="SUMATERA"/>
+        <s v="JAWA-BALI-NT"/>
+        <s v="KALIMANTAN"/>
+        <s v="SULAWESI"/>
+        <s v="MALUKU-PAPUA"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="x1" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.6913378238677979" maxValue="9.1578502655029297"/>
     </cacheField>
@@ -334,6 +424,9 @@
     <cacheField name="y" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2189574241638184" maxValue="25.087886810302731"/>
     </cacheField>
+    <cacheField name="Upah Minimum (Rp)" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2036947" maxValue="5067381"/>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -347,317 +440,385 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
   <r>
     <x v="0"/>
+    <x v="0"/>
     <n v="4.2484736442565918"/>
     <n v="6.9475893974304199"/>
     <n v="0.31147980690002441"/>
     <n v="0"/>
     <x v="0"/>
     <n v="13.895021438598629"/>
+    <n v="3460672"/>
   </r>
   <r>
     <x v="1"/>
+    <x v="0"/>
     <n v="5.8928189277648926"/>
     <n v="7.1506891250610352"/>
     <n v="0.3030681312084198"/>
     <n v="1"/>
     <x v="1"/>
     <n v="7.7706928253173828"/>
+    <n v="2809915"/>
   </r>
   <r>
     <x v="2"/>
+    <x v="0"/>
     <n v="4.1157889366149902"/>
     <n v="5.1854152679443359"/>
     <n v="0.26516011357307429"/>
     <n v="4"/>
     <x v="2"/>
     <n v="5.8085117340087891"/>
+    <n v="2811449.27"/>
   </r>
   <r>
     <x v="3"/>
+    <x v="0"/>
     <n v="5.3292179107666016"/>
     <n v="5.6475424766540527"/>
     <n v="0.32887184619903559"/>
     <n v="4"/>
     <x v="3"/>
     <n v="6.6058368682861328"/>
+    <n v="3294625.56"/>
   </r>
   <r>
     <x v="4"/>
+    <x v="0"/>
     <n v="4.2387814521789551"/>
     <n v="5.8456487655639648"/>
     <n v="0.33388599753379822"/>
     <n v="4"/>
     <x v="2"/>
     <n v="7.5070672035217294"/>
+    <n v="3037121.85"/>
   </r>
   <r>
     <x v="5"/>
+    <x v="0"/>
     <n v="4.9049444198608398"/>
     <n v="6.877927303314209"/>
     <n v="0.3521895706653595"/>
     <n v="0"/>
     <x v="0"/>
     <n v="11.33576107025146"/>
+    <n v="3456874"/>
   </r>
   <r>
     <x v="6"/>
+    <x v="0"/>
     <n v="4.832639217376709"/>
     <n v="4.7507338523864746"/>
     <n v="0.33597275614738459"/>
     <n v="4"/>
     <x v="2"/>
     <n v="13.489108085632321"/>
+    <n v="2507079.2400000002"/>
   </r>
   <r>
     <x v="7"/>
+    <x v="0"/>
     <n v="6.2086353302001953"/>
     <n v="6.8889408111572266"/>
     <n v="0.28595438599586492"/>
     <n v="1"/>
     <x v="1"/>
     <n v="10.56950664520264"/>
+    <n v="2716497"/>
   </r>
   <r>
     <x v="8"/>
+    <x v="0"/>
     <n v="3.6913378238677979"/>
     <n v="5.3547778129577637"/>
     <n v="0.2351201921701431"/>
     <n v="4"/>
     <x v="2"/>
     <n v="4.5335202217102051"/>
+    <n v="3640000"/>
   </r>
   <r>
     <x v="9"/>
+    <x v="0"/>
     <n v="6.0908102989196777"/>
     <n v="7.3405961990356454"/>
     <n v="0.34085366129875178"/>
     <n v="1"/>
     <x v="1"/>
     <n v="5.8034753799438477"/>
+    <n v="3402492"/>
   </r>
   <r>
     <x v="10"/>
+    <x v="1"/>
     <n v="4.8973350524902344"/>
     <n v="7.3270998001098633"/>
     <n v="0.4240507185459137"/>
     <n v="0"/>
     <x v="0"/>
     <n v="4.4586014747619629"/>
+    <n v="5067381"/>
   </r>
   <r>
     <x v="11"/>
+    <x v="1"/>
     <n v="5.436366081237793"/>
     <n v="7.5515751838684082"/>
     <n v="0.41472789645195007"/>
     <n v="0"/>
     <x v="0"/>
     <n v="7.4204277992248544"/>
+    <n v="2057495"/>
   </r>
   <r>
     <x v="12"/>
+    <x v="1"/>
     <n v="6.6202764511108398"/>
     <n v="5.5730853080749512"/>
     <n v="0.39134114980697632"/>
     <n v="3"/>
     <x v="3"/>
     <n v="10.39489078521729"/>
+    <n v="2036947"/>
   </r>
   <r>
     <x v="13"/>
+    <x v="1"/>
     <n v="6.4582948684692383"/>
     <n v="5.0575160980224609"/>
     <n v="0.41863632202148438"/>
     <n v="3"/>
     <x v="3"/>
     <n v="10.603122711181641"/>
+    <n v="2125897.61"/>
   </r>
   <r>
     <x v="14"/>
+    <x v="1"/>
     <n v="5.7981867790222168"/>
     <n v="5.4671597480773926"/>
     <n v="0.37002724409103388"/>
     <n v="3"/>
     <x v="3"/>
     <n v="10.1016731262207"/>
+    <n v="2165244.2999999998"/>
   </r>
   <r>
     <x v="15"/>
+    <x v="1"/>
     <n v="7.5080709457397461"/>
     <n v="7.8966355323791504"/>
     <n v="0.37984970211982733"/>
     <n v="1"/>
     <x v="1"/>
     <n v="5.935788631439209"/>
+    <n v="2727812.11"/>
   </r>
   <r>
     <x v="16"/>
+    <x v="1"/>
     <n v="6.308072566986084"/>
     <n v="6.6148185729980469"/>
     <n v="0.37791374325752258"/>
     <n v="1"/>
     <x v="1"/>
     <n v="4.2788019180297852"/>
+    <n v="2813672"/>
   </r>
   <r>
     <x v="17"/>
+    <x v="1"/>
     <n v="7.1301798820495614"/>
     <n v="4.6529293060302734"/>
     <n v="0.37660583853721619"/>
     <n v="3"/>
     <x v="3"/>
     <n v="13.316562652587891"/>
+    <n v="2444067"/>
   </r>
   <r>
     <x v="18"/>
+    <x v="1"/>
     <n v="6.1196584701538086"/>
     <n v="6.2132101058959961"/>
     <n v="0.3373945951461792"/>
     <n v="1"/>
     <x v="1"/>
     <n v="19.158065795898441"/>
+    <n v="2186826"/>
   </r>
   <r>
     <x v="19"/>
+    <x v="2"/>
     <n v="6.2878546714782706"/>
     <n v="6.4783473014831543"/>
     <n v="0.28871569037437439"/>
     <n v="1"/>
     <x v="1"/>
     <n v="6.4171557426452637"/>
+    <n v="2702616"/>
   </r>
   <r>
     <x v="20"/>
+    <x v="2"/>
     <n v="6.2356562614440918"/>
     <n v="7.3028755187988281"/>
     <n v="0.3141472339630127"/>
     <n v="1"/>
     <x v="1"/>
     <n v="4.9811062812805176"/>
+    <n v="3261616"/>
   </r>
   <r>
     <x v="21"/>
+    <x v="2"/>
     <n v="6.3902087211608887"/>
     <n v="5.8168067932128906"/>
     <n v="0.3275943398475647"/>
     <n v="3"/>
     <x v="3"/>
     <n v="4.2189574241638184"/>
+    <n v="3282812.21"/>
   </r>
   <r>
     <x v="22"/>
+    <x v="2"/>
     <n v="6.087618350982666"/>
     <n v="7.0822772979736328"/>
     <n v="0.32721000909805298"/>
     <n v="1"/>
     <x v="1"/>
     <n v="5.9285478591918954"/>
+    <n v="3360858"/>
   </r>
   <r>
     <x v="23"/>
+    <x v="2"/>
     <n v="7.3504843711853027"/>
     <n v="5.9618301391601563"/>
     <n v="0.2701924741268158"/>
     <n v="2"/>
     <x v="4"/>
     <n v="6.3166379928588867"/>
+    <n v="3361653"/>
   </r>
   <r>
     <x v="24"/>
+    <x v="3"/>
     <n v="4.9561724662780762"/>
     <n v="8.0962257385253906"/>
     <n v="0.35329899191856379"/>
     <n v="0"/>
     <x v="0"/>
     <n v="7.1861276626586914"/>
+    <n v="3545000"/>
   </r>
   <r>
     <x v="25"/>
+    <x v="3"/>
     <n v="8.1481647491455078"/>
     <n v="5.9010496139526367"/>
     <n v="0.30370116233825678"/>
     <n v="2"/>
     <x v="4"/>
     <n v="11.76066780090332"/>
+    <n v="2736698"/>
   </r>
   <r>
     <x v="26"/>
+    <x v="3"/>
     <n v="5.0793976783752441"/>
     <n v="6.6263227462768546"/>
     <n v="0.36351519823074341"/>
     <n v="0"/>
     <x v="0"/>
     <n v="8.5115680694580078"/>
+    <n v="3434298"/>
   </r>
   <r>
     <x v="27"/>
+    <x v="3"/>
     <n v="5.3793454170227051"/>
     <n v="5.0158405303955078"/>
     <n v="0.38533881306648249"/>
     <n v="4"/>
     <x v="2"/>
     <n v="11.195284843444821"/>
+    <n v="2885964.04"/>
   </r>
   <r>
     <x v="28"/>
+    <x v="3"/>
     <n v="4.9037313461303711"/>
     <n v="5.8713278770446777"/>
     <n v="0.42332801222801208"/>
     <n v="4"/>
     <x v="2"/>
     <n v="14.593851089477541"/>
+    <n v="3025100"/>
   </r>
   <r>
     <x v="29"/>
+    <x v="3"/>
     <n v="5.4401249885559082"/>
     <n v="6.2180595397949219"/>
     <n v="0.3540152907371521"/>
     <n v="0"/>
     <x v="1"/>
     <n v="11.34084892272949"/>
+    <n v="2914958.08"/>
   </r>
   <r>
     <x v="30"/>
+    <x v="4"/>
     <n v="5.5066895484924316"/>
     <n v="7.7158937454223633"/>
     <n v="0.29585090279579163"/>
     <n v="0"/>
     <x v="0"/>
     <n v="15.625191688537599"/>
+    <n v="2949953"/>
   </r>
   <r>
     <x v="31"/>
+    <x v="4"/>
     <n v="9.1578502655029297"/>
     <n v="6.6317358016967773"/>
     <n v="0.30743375420570368"/>
     <n v="2"/>
     <x v="4"/>
     <n v="6.0749750137329102"/>
+    <n v="3200000"/>
   </r>
   <r>
     <x v="32"/>
+    <x v="4"/>
     <n v="6.3872995376586914"/>
     <n v="6.3216667175292969"/>
     <n v="0.37026104331016541"/>
     <n v="1"/>
     <x v="1"/>
     <n v="19.44630241394043"/>
+    <n v="3393500"/>
   </r>
   <r>
     <x v="33"/>
+    <x v="4"/>
     <n v="7.2104883193969727"/>
     <n v="6.0538568496704102"/>
     <n v="0.40135228633880621"/>
     <n v="2"/>
     <x v="4"/>
     <n v="25.087886810302731"/>
+    <n v="4024270"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3D29061-EF09-47FD-A913-F7A5FE2A8FF7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06E4AA2E-62BB-4F58-9B1A-8067BC2F0B18}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:F43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="35">
         <item x="0"/>
@@ -697,6 +858,16 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -712,9 +883,10 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="5"/>
+    <field x="6"/>
     <field x="0"/>
   </rowFields>
   <rowItems count="40">
@@ -842,7 +1014,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -855,13 +1027,40 @@
     <i i="3">
       <x v="3"/>
     </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </colItems>
-  <dataFields count="4">
-    <dataField name="Average of x1" fld="1" subtotal="average" baseField="5" baseItem="0"/>
-    <dataField name="Average of x2" fld="2" subtotal="average" baseField="5" baseItem="0"/>
-    <dataField name="Average of x3" fld="3" subtotal="average" baseField="5" baseItem="0"/>
-    <dataField name="Average of y" fld="6" subtotal="average" baseField="5" baseItem="1"/>
+  <dataFields count="5">
+    <dataField name="Average of x1" fld="2" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
+    <dataField name="Average of x2" fld="3" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
+    <dataField name="Average of x3" fld="4" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
+    <dataField name="Average of y" fld="7" subtotal="average" baseField="5" baseItem="1" numFmtId="2"/>
+    <dataField name="Average of Upah Minimum (Rp)" fld="8" subtotal="average" baseField="6" baseItem="1" numFmtId="44"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="4" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1161,20 +1360,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAE0A21-6B44-4F88-9600-8DDCAE3A445A}">
-  <dimension ref="A3:E43"/>
+  <dimension ref="A3:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="69" width="12" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="108" width="12" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11" bestFit="1" customWidth="1"/>
+    <col min="110" max="128" width="12" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11" bestFit="1" customWidth="1"/>
+    <col min="130" max="134" width="12" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="12" bestFit="1" customWidth="1"/>
+    <col min="138" max="140" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1190,685 +1405,808 @@
       <c r="E3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="8">
         <v>5.004196984427316</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>7.3060905592782159</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>0.35930186935833525</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>9.7760998862130304</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="7">
+        <v>3424524.7142857141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>4.2484736442565918</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>6.9475893974304199</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>0.31147980690002441</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>13.895021438598629</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="7">
+        <v>3460672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>4.8973350524902344</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>7.3270998001098633</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>0.4240507185459137</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>4.4586014747619629</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="7">
+        <v>5067381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="8">
         <v>5.436366081237793</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>7.5515751838684082</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>0.41472789645195007</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>7.4204277992248544</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="7">
+        <v>2057495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>5.5066895484924316</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>7.7158937454223633</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>0.29585090279579163</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>15.625191688537599</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="7">
+        <v>2949953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="8">
         <v>5.0793976783752441</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>6.6263227462768546</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>0.36351519823074341</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>8.5115680694580078</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="7">
+        <v>3434298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="8">
         <v>4.9561724662780762</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>8.0962257385253906</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>0.35329899191856379</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>7.1861276626586914</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="7">
+        <v>3545000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="8">
         <v>4.9049444198608398</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>6.877927303314209</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>0.3521895706653595</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>11.33576107025146</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="7">
+        <v>3456874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="8">
         <v>6.2333291227167305</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>6.8643742474642666</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>0.33448940786448395</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>9.2391174923289903</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="7">
+        <v>2935523.8354545454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="8">
         <v>6.308072566986084</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>6.6148185729980469</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>0.37791374325752258</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <v>4.2788019180297852</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="7">
+        <v>2813672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="8">
         <v>7.5080709457397461</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>7.8966355323791504</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>0.37984970211982733</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>5.935788631439209</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="7">
+        <v>2727812.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="8">
         <v>6.2878546714782706</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>6.4783473014831543</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>0.28871569037437439</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>6.4171557426452637</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="7">
+        <v>2702616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="8">
         <v>6.2356562614440918</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>7.3028755187988281</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>0.3141472339630127</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>4.9811062812805176</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="7">
+        <v>3261616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="8">
         <v>6.087618350982666</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>7.0822772979736328</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>0.32721000909805298</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>5.9285478591918954</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="7">
+        <v>3360858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="8">
         <v>6.0908102989196777</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>7.3405961990356454</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>0.34085366129875178</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>5.8034753799438477</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="7">
+        <v>3402492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="8">
         <v>6.2086353302001953</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>6.8889408111572266</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>0.28595438599586492</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <v>10.56950664520264</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="7">
+        <v>2716497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="8">
         <v>6.1196584701538086</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>6.2132101058959961</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>0.3373945951461792</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>19.158065795898441</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="7">
+        <v>2186826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="8">
         <v>6.3872995376586914</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>6.3216667175292969</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>0.37026104331016541</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
         <v>19.44630241394043</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="7">
+        <v>3393500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="8">
         <v>5.4401249885559082</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>6.2180595397949219</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <v>0.3540152907371521</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>11.34084892272949</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="7">
+        <v>2914958.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="8">
         <v>5.8928189277648926</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <v>7.1506891250610352</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="8">
         <v>0.3030681312084198</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <v>7.7706928253173828</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="7">
+        <v>2809915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="8">
         <v>7.9667469263076782</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>6.1371181011199951</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="8">
         <v>0.32066991925239563</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <v>12.310041904449463</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="7">
+        <v>3330655.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="8">
         <v>7.3504843711853027</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <v>5.9618301391601563</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>0.2701924741268158</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <v>6.3166379928588867</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="7">
+        <v>3361653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="8">
         <v>9.1578502655029297</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>6.6317358016967773</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="8">
         <v>0.30743375420570368</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>6.0749750137329102</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="8">
         <v>7.2104883193969727</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <v>6.0538568496704102</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="8">
         <v>0.40135228633880621</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="8">
         <v>25.087886810302731</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7">
+        <v>4024270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="8">
         <v>8.1481647491455078</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <v>5.9010496139526367</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="8">
         <v>0.30370116233825678</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="8">
         <v>11.76066780090332</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="7">
+        <v>2736698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>3</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="8">
         <v>6.2877274354298907</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="8">
         <v>5.3691732883453369</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="8">
         <v>0.36884612341721851</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="8">
         <v>9.206840594609579</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7">
+        <v>2558265.6133333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="8">
         <v>6.4582948684692383</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="8">
         <v>5.0575160980224609</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="8">
         <v>0.41863632202148438</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <v>10.603122711181641</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="7">
+        <v>2125897.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="8">
         <v>6.6202764511108398</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="8">
         <v>5.5730853080749512</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="8">
         <v>0.39134114980697632</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
         <v>10.39489078521729</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="7">
+        <v>2036947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="8">
         <v>5.7981867790222168</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <v>5.4671597480773926</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="8">
         <v>0.37002724409103388</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="8">
         <v>10.1016731262207</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="7">
+        <v>2165244.2999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="8">
         <v>6.3902087211608887</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <v>5.8168067932128906</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <v>0.3275943398475647</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="8">
         <v>4.2189574241638184</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="7">
+        <v>3282812.21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="8">
         <v>7.1301798820495614</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="8">
         <v>4.6529293060302734</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="8">
         <v>0.37660583853721619</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="8">
         <v>13.316562652587891</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="7">
+        <v>2444067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="8">
         <v>5.3292179107666016</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="8">
         <v>5.6475424766540527</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="8">
         <v>0.32887184619903559</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="8">
         <v>6.6058368682861328</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="7">
+        <v>3294625.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>4</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="8">
         <v>4.5269373655319214</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="8">
         <v>5.3372906843821211</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="8">
         <v>0.32980098078648251</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="8">
         <v>9.5212238629659023</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="7">
+        <v>2984452.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="8">
         <v>4.832639217376709</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="8">
         <v>4.7507338523864746</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="8">
         <v>0.33597275614738459</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="8">
         <v>13.489108085632321</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="7">
+        <v>2507079.2400000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="8">
         <v>4.9037313461303711</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="8">
         <v>5.8713278770446777</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="8">
         <v>0.42332801222801208</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="8">
         <v>14.593851089477541</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="7">
+        <v>3025100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="8">
         <v>4.2387814521789551</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="8">
         <v>5.8456487655639648</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="8">
         <v>0.33388599753379822</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="8">
         <v>7.5070672035217294</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="7">
+        <v>3037121.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="8">
         <v>3.6913378238677979</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="8">
         <v>5.3547778129577637</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="8">
         <v>0.2351201921701431</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="8">
         <v>4.5335202217102051</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="7">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="8">
         <v>5.3793454170227051</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="8">
         <v>5.0158405303955078</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="8">
         <v>0.38533881306648249</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="8">
         <v>11.195284843444821</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="7">
+        <v>2885964.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="8">
         <v>4.1157889366149902</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="8">
         <v>5.1854152679443359</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="8">
         <v>0.26516011357307429</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
         <v>5.8085117340087891</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="7">
+        <v>2811449.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="8">
         <v>5.8926757574081421</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="8">
         <v>6.3364119669970345</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="8">
         <v>0.34320761394851346</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="8">
         <v>9.7550454700694367</v>
+      </c>
+      <c r="F43" s="7">
+        <v>3024746.0079411757</v>
       </c>
     </row>
   </sheetData>
@@ -1878,919 +2216,1897 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
         <v>4.2484736442565918</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>6.9475893974304199</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.31147980690002441</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>13.895021438598629</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="6">
+        <v>3460672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>5.8928189277648926</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.1506891250610352</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3030681312084198</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>7.7706928253173828</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="6">
+        <v>2809915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
         <v>4.1157889366149902</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5.1854152679443359</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.26516011357307429</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>5.8085117340087891</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="6">
+        <v>2811449.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
         <v>5.3292179107666016</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5.6475424766540527</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.32887184619903559</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6.6058368682861328</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="6">
+        <v>3294625.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
         <v>4.2387814521789551</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5.8456487655639648</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.33388599753379822</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <v>7.5070672035217294</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="6">
+        <v>3037121.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
         <v>4.9049444198608398</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6.877927303314209</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3521895706653595</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>11.33576107025146</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="6">
+        <v>3456874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
         <v>4.832639217376709</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4.7507338523864746</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.33597275614738459</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>13.489108085632321</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="6">
+        <v>2507079.2400000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
         <v>6.2086353302001953</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>6.8889408111572266</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.28595438599586492</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>10.56950664520264</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="6">
+        <v>2716497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>3.6913378238677979</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5.3547778129577637</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2351201921701431</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
         <v>4.5335202217102051</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="6">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
         <v>6.0908102989196777</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7.3405961990356454</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.34085366129875178</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>5.8034753799438477</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="6">
+        <v>3402492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
         <v>4.8973350524902344</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>7.3270998001098633</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.4240507185459137</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>4.4586014747619629</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="6">
+        <v>5067381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
         <v>5.436366081237793</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7.5515751838684082</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.41472789645195007</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>7.4204277992248544</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="6">
+        <v>2057495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
         <v>6.6202764511108398</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5.5730853080749512</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.39134114980697632</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>10.39489078521729</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="6">
+        <v>2036947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
         <v>6.4582948684692383</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5.0575160980224609</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.41863632202148438</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>10.603122711181641</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" s="6">
+        <v>2125897.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
         <v>5.7981867790222168</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5.4671597480773926</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.37002724409103388</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>10.1016731262207</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" s="6">
+        <v>2165244.2999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
         <v>7.5080709457397461</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>7.8966355323791504</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.37984970211982733</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>5.935788631439209</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="6">
+        <v>2727812.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
         <v>6.308072566986084</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6.6148185729980469</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.37791374325752258</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>4.2788019180297852</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" s="6">
+        <v>2813672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
         <v>7.1301798820495614</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4.6529293060302734</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.37660583853721619</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
         <v>13.316562652587891</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" s="6">
+        <v>2444067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
         <v>6.1196584701538086</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6.2132101058959961</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3373945951461792</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>19.158065795898441</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J20" s="6">
+        <v>2186826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
         <v>6.2878546714782706</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>6.4783473014831543</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.28871569037437439</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>6.4171557426452637</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J21" s="6">
+        <v>2702616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
         <v>6.2356562614440918</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7.3028755187988281</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.3141472339630127</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>4.9811062812805176</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22" s="6">
+        <v>3261616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
         <v>6.3902087211608887</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5.8168067932128906</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.3275943398475647</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
         <v>4.2189574241638184</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J23" s="6">
+        <v>3282812.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
         <v>6.087618350982666</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>7.0822772979736328</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.32721000909805298</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>5.9285478591918954</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24" s="6">
+        <v>3360858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
         <v>7.3504843711853027</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5.9618301391601563</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.2701924741268158</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>6.3166379928588867</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J25" s="6">
+        <v>3361653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26">
         <v>4.9561724662780762</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8.0962257385253906</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.35329899191856379</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>7.1861276626586914</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J26" s="6">
+        <v>3545000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
         <v>8.1481647491455078</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5.9010496139526367</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.30370116233825678</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>11.76066780090332</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27" s="6">
+        <v>2736698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
         <v>5.0793976783752441</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>6.6263227462768546</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.36351519823074341</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>8.5115680694580078</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J28" s="6">
+        <v>3434298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
         <v>5.3793454170227051</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5.0158405303955078</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.38533881306648249</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
       </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
         <v>11.195284843444821</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29" s="6">
+        <v>2885964.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
         <v>4.9037313461303711</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5.8713278770446777</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.42332801222801208</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
       </c>
       <c r="G30">
         <v>4</v>
       </c>
       <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
         <v>14.593851089477541</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J30" s="6">
+        <v>3025100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
         <v>5.4401249885559082</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>6.2180595397949219</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.3540152907371521</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>11.34084892272949</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J31" s="6">
+        <v>2914958.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
         <v>5.5066895484924316</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>7.7158937454223633</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.29585090279579163</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>15.625191688537599</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J32" s="6">
+        <v>2949953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33">
         <v>9.1578502655029297</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>6.6317358016967773</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.30743375420570368</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>6.0749750137329102</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J33" s="6">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
         <v>6.3872995376586914</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>6.3216667175292969</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.37026104331016541</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>19.44630241394043</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" s="6">
+        <v>3393500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
         <v>7.2104883193969727</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>6.0538568496704102</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.40135228633880621</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>25.087886810302731</v>
+      </c>
+      <c r="J35" s="6">
+        <v>4024270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="8">
+        <f>AVERAGE(D2:D35)</f>
+        <v>5.8926757574081421</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" ref="E37:J37" si="0">AVERAGE(E2:E35)</f>
+        <v>6.3364119669970345</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34320761394851346</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="0"/>
+        <v>9.7550454700694349</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>3024746.0079411766</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6264F2-98EF-4964-8F1B-E56A8B9CD9E6}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12">
+        <v>4.2484736442565918</v>
+      </c>
+      <c r="C2" s="12">
+        <v>6.9475893974304199</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.31147980690002441</v>
+      </c>
+      <c r="E2" s="12">
+        <v>13.895021438598629</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5.8928189277648926</v>
+      </c>
+      <c r="C3" s="12">
+        <v>7.1506891250610352</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.3030681312084198</v>
+      </c>
+      <c r="E3" s="12">
+        <v>7.7706928253173828</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4.1157889366149902</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5.1854152679443359</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.26516011357307429</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5.8085117340087891</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5.3292179107666016</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5.6475424766540527</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.32887184619903559</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6.6058368682861328</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4.2387814521789551</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.8456487655639648</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.33388599753379822</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7.5070672035217294</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4.9049444198608398</v>
+      </c>
+      <c r="C7" s="12">
+        <v>6.877927303314209</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.3521895706653595</v>
+      </c>
+      <c r="E7" s="12">
+        <v>11.33576107025146</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4.832639217376709</v>
+      </c>
+      <c r="C8" s="12">
+        <v>4.7507338523864746</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.33597275614738459</v>
+      </c>
+      <c r="E8" s="12">
+        <v>13.489108085632321</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12">
+        <v>6.2086353302001953</v>
+      </c>
+      <c r="C9" s="12">
+        <v>6.8889408111572266</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.28595438599586492</v>
+      </c>
+      <c r="E9" s="12">
+        <v>10.56950664520264</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3.6913378238677979</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5.3547778129577637</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.2351201921701431</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.5335202217102051</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12">
+        <v>6.0908102989196777</v>
+      </c>
+      <c r="C11" s="12">
+        <v>7.3405961990356454</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.34085366129875178</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5.8034753799438477</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="12">
+        <v>4.8973350524902344</v>
+      </c>
+      <c r="C12" s="12">
+        <v>7.3270998001098633</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.4240507185459137</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.4586014747619629</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12">
+        <v>5.436366081237793</v>
+      </c>
+      <c r="C13" s="12">
+        <v>7.5515751838684082</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.41472789645195007</v>
+      </c>
+      <c r="E13" s="12">
+        <v>7.4204277992248544</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="12">
+        <v>6.6202764511108398</v>
+      </c>
+      <c r="C14" s="12">
+        <v>5.5730853080749512</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.39134114980697632</v>
+      </c>
+      <c r="E14" s="12">
+        <v>10.39489078521729</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="12">
+        <v>6.4582948684692383</v>
+      </c>
+      <c r="C15" s="12">
+        <v>5.0575160980224609</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.41863632202148438</v>
+      </c>
+      <c r="E15" s="12">
+        <v>10.603122711181641</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12">
+        <v>5.7981867790222168</v>
+      </c>
+      <c r="C16" s="12">
+        <v>5.4671597480773926</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.37002724409103388</v>
+      </c>
+      <c r="E16" s="12">
+        <v>10.1016731262207</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="12">
+        <v>7.5080709457397461</v>
+      </c>
+      <c r="C17" s="12">
+        <v>7.8966355323791504</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.37984970211982733</v>
+      </c>
+      <c r="E17" s="12">
+        <v>5.935788631439209</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="12">
+        <v>6.308072566986084</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6.6148185729980469</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.37791374325752258</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.2788019180297852</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="12">
+        <v>7.1301798820495614</v>
+      </c>
+      <c r="C19" s="12">
+        <v>4.6529293060302734</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.37660583853721619</v>
+      </c>
+      <c r="E19" s="12">
+        <v>13.316562652587891</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="12">
+        <v>6.1196584701538086</v>
+      </c>
+      <c r="C20" s="12">
+        <v>6.2132101058959961</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.3373945951461792</v>
+      </c>
+      <c r="E20" s="12">
+        <v>19.158065795898441</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12">
+        <v>6.2878546714782706</v>
+      </c>
+      <c r="C21" s="12">
+        <v>6.4783473014831543</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.28871569037437439</v>
+      </c>
+      <c r="E21" s="12">
+        <v>6.4171557426452637</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="12">
+        <v>6.2356562614440918</v>
+      </c>
+      <c r="C22" s="12">
+        <v>7.3028755187988281</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.3141472339630127</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.9811062812805176</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="12">
+        <v>6.3902087211608887</v>
+      </c>
+      <c r="C23" s="12">
+        <v>5.8168067932128906</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.3275943398475647</v>
+      </c>
+      <c r="E23" s="12">
+        <v>4.2189574241638184</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="12">
+        <v>6.087618350982666</v>
+      </c>
+      <c r="C24" s="12">
+        <v>7.0822772979736328</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.32721000909805298</v>
+      </c>
+      <c r="E24" s="12">
+        <v>5.9285478591918954</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="12">
+        <v>7.3504843711853027</v>
+      </c>
+      <c r="C25" s="12">
+        <v>5.9618301391601563</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.2701924741268158</v>
+      </c>
+      <c r="E25" s="12">
+        <v>6.3166379928588867</v>
+      </c>
+      <c r="F25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="12">
+        <v>4.9561724662780762</v>
+      </c>
+      <c r="C26" s="12">
+        <v>8.0962257385253906</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.35329899191856379</v>
+      </c>
+      <c r="E26" s="12">
+        <v>7.1861276626586914</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="12">
+        <v>8.1481647491455078</v>
+      </c>
+      <c r="C27" s="12">
+        <v>5.9010496139526367</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.30370116233825678</v>
+      </c>
+      <c r="E27" s="12">
+        <v>11.76066780090332</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="12">
+        <v>5.0793976783752441</v>
+      </c>
+      <c r="C28" s="12">
+        <v>6.6263227462768546</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.36351519823074341</v>
+      </c>
+      <c r="E28" s="12">
+        <v>8.5115680694580078</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="12">
+        <v>5.3793454170227051</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5.0158405303955078</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.38533881306648249</v>
+      </c>
+      <c r="E29" s="12">
+        <v>11.195284843444821</v>
+      </c>
+      <c r="F29" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="12">
+        <v>4.9037313461303711</v>
+      </c>
+      <c r="C30" s="12">
+        <v>5.8713278770446777</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.42332801222801208</v>
+      </c>
+      <c r="E30" s="12">
+        <v>14.593851089477541</v>
+      </c>
+      <c r="F30" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="12">
+        <v>5.4401249885559082</v>
+      </c>
+      <c r="C31" s="12">
+        <v>6.2180595397949219</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.3540152907371521</v>
+      </c>
+      <c r="E31" s="12">
+        <v>11.34084892272949</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="12">
+        <v>5.5066895484924316</v>
+      </c>
+      <c r="C32" s="12">
+        <v>7.7158937454223633</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.29585090279579163</v>
+      </c>
+      <c r="E32" s="12">
+        <v>15.625191688537599</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="12">
+        <v>9.1578502655029297</v>
+      </c>
+      <c r="C33" s="12">
+        <v>6.6317358016967773</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.30743375420570368</v>
+      </c>
+      <c r="E33" s="12">
+        <v>6.0749750137329102</v>
+      </c>
+      <c r="F33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="12">
+        <v>6.3872995376586914</v>
+      </c>
+      <c r="C34" s="12">
+        <v>6.3216667175292969</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.37026104331016541</v>
+      </c>
+      <c r="E34" s="12">
+        <v>19.44630241394043</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="12">
+        <v>7.2104883193969727</v>
+      </c>
+      <c r="C35" s="12">
+        <v>6.0538568496704102</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.40135228633880621</v>
+      </c>
+      <c r="E35" s="12">
+        <v>25.087886810302731</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
